--- a/biology/Zoologie/Alouette_de_Swinhoe/Alouette_de_Swinhoe.xlsx
+++ b/biology/Zoologie/Alouette_de_Swinhoe/Alouette_de_Swinhoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alaudala cheleensis
 L’Alouette de Swinhoe (Alaudala cheleensis) est une espèce de passereaux de la famille des Alaudidae.
@@ -512,14 +524,85 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce niche du Turkestan jusqu'à la Chine et à la Mongolie.
-Synonymes
-Calandrella cheleensis
-Calandrella rufescens cheleensis
-Sous-espèces
-Alaudala cheleensis leucophaea (Severtsov, 1873)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce niche du Turkestan jusqu'à la Chine et à la Mongolie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alouette_de_Swinhoe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alouette_de_Swinhoe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Calandrella cheleensis
+Calandrella rufescens cheleensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alouette_de_Swinhoe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alouette_de_Swinhoe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alaudala cheleensis leucophaea (Severtsov, 1873)
 Alaudala cheleensis seebohmi Sharpe, 1890
 Alaudala cheleensis tuvinica (Stepanyan, 1975)
 Alaudala cheleensis cheleensis Swinhoe, 1871
